--- a/Resumo_Operacional_Com_Graficos.xlsx
+++ b/Resumo_Operacional_Com_Graficos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Msacco IN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0FDFCB-AA9D-4305-A484-ACD85713F327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAF609B-73DD-417E-8AC1-829FC6F03B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4977,7 +4977,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5000,7 +5000,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5008,7 +5008,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5016,7 +5016,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5024,7 +5024,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="3">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5032,7 +5032,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5040,7 +5040,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5048,7 +5048,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5056,7 +5056,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5064,7 +5064,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5072,7 +5072,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5080,7 +5080,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="3">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5088,7 +5088,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="3">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Resumo_Operacional_Com_Graficos.xlsx
+++ b/Resumo_Operacional_Com_Graficos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Msacco IN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAF609B-73DD-417E-8AC1-829FC6F03B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D5AAE5-D92A-471B-AAB1-FACA17ACF4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5000,7 +5000,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5008,7 +5008,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5016,7 +5016,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5024,7 +5024,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="3">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5032,7 +5032,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5040,7 +5040,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5048,7 +5048,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5056,7 +5056,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5064,7 +5064,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5072,7 +5072,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5080,7 +5080,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="3">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5088,7 +5088,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="3">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Resumo_Operacional_Com_Graficos.xlsx
+++ b/Resumo_Operacional_Com_Graficos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Msacco IN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D5AAE5-D92A-471B-AAB1-FACA17ACF4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F042EBD-C2AB-4E33-B6F9-57D9656CD7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5000,7 +5000,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5008,7 +5008,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5016,7 +5016,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5024,7 +5024,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="3">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5032,7 +5032,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5040,7 +5040,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5048,7 +5048,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5056,7 +5056,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5064,7 +5064,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5072,7 +5072,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5080,7 +5080,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="3">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5088,7 +5088,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="3">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Resumo_Operacional_Com_Graficos.xlsx
+++ b/Resumo_Operacional_Com_Graficos.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Msacco IN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F042EBD-C2AB-4E33-B6F9-57D9656CD7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2021D77-2C99-481D-86E5-ED99C6DE80D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluxo anual_2025_Soja_1" sheetId="1" r:id="rId1"/>
     <sheet name="Fluxo anual_2025_Jefray_1 2" sheetId="2" r:id="rId2"/>
     <sheet name="Fluxo anual_2025_Despesas(6)" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="2">'Fluxo anual_2025_Despesas(6)'!$A$1:$B$13</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
   <si>
     <t>Mês</t>
   </si>
@@ -436,6 +437,16 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DC5817DA-9593-4D73-B253-7EACF7197744}" name="Mês"/>
     <tableColumn id="2" xr3:uid="{14F0D58C-C6A6-42A4-BC0D-DB1F5B88BF5F}" name="Total Despesas"/>
+  </tableColumns>
+  <tableStyleInfo name="Fluxo anual_2025_Despesas(6)-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{59DFE7AE-E8A6-489E-80DD-68B55A50B051}" name="Table_356" displayName="Table_356" ref="A1:B13">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{ABD7FB41-17BB-4A54-B859-8AA9B722C5A5}" name="Mês"/>
+    <tableColumn id="2" xr3:uid="{AF4DDE80-F8AA-4D06-9A80-27AF80D4E01E}" name="Total Despesas"/>
   </tableColumns>
   <tableStyleInfo name="Fluxo anual_2025_Despesas(6)-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4976,8 +4987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6085,4 +6096,129 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716188E-E103-4F26-B7C0-5F384F4A6ABE}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Resumo_Operacional_Com_Graficos.xlsx
+++ b/Resumo_Operacional_Com_Graficos.xlsx
@@ -6131,7 +6131,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="5">
-        <v>800.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">

--- a/Resumo_Operacional_Com_Graficos.xlsx
+++ b/Resumo_Operacional_Com_Graficos.xlsx
@@ -6131,7 +6131,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="5">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">

--- a/Resumo_Operacional_Com_Graficos.xlsx
+++ b/Resumo_Operacional_Com_Graficos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Msacco IN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835A0FFE-49DF-4FDC-BE8F-E8D75440AD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36095C13-F68E-41BD-B9E3-D4651A62012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27420" yWindow="870" windowWidth="25455" windowHeight="11235" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6154,7 +6154,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Resumo_Operacional_Com_Graficos.xlsx
+++ b/Resumo_Operacional_Com_Graficos.xlsx
@@ -6131,7 +6131,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="5">
-        <v>255.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">

--- a/Resumo_Operacional_Com_Graficos.xlsx
+++ b/Resumo_Operacional_Com_Graficos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Msacco IN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4420EA0-A575-4613-AEE1-D3DE09341F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97E753F-E8A6-44CD-A099-4492701B3D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
   <si>
     <t>Mês</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Total Despesas</t>
+  </si>
+  <si>
+    <t>Babi1312</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A1:B13">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Mês"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Babi1312"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total Despesas"/>
   </tableColumns>
   <tableStyleInfo name="Sheet2-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -6153,7 +6156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6164,7 +6169,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -6207,7 +6212,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="3">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
